--- a/data/trans_dic/P16B18-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Dificultad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -883,7 +883,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16B18-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Dificultad-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8186125280077884</v>
+        <v>0.8186449275271973</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9249879433814021</v>
+        <v>0.9212510287172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8854205200807939</v>
+        <v>0.8908150794980483</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9788101465285639</v>
+        <v>0.9791367386197767</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8278874535043463</v>
+        <v>0.8187828786690882</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9007866865952836</v>
+        <v>0.8983298728876594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8513172175506383</v>
+        <v>0.8453930111930293</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9682787307944827</v>
+        <v>0.9679607483447412</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9882931881950535</v>
+        <v>0.988429631101454</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9825955950188368</v>
+        <v>0.9823546201789961</v>
       </c>
     </row>
     <row r="10">
@@ -711,11 +711,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8535747968641524</v>
+        <v>0.8545385936425771</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.8319495884953172</v>
+        <v>0.8310392094399429</v>
       </c>
     </row>
     <row r="12">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9833258947453837</v>
+        <v>0.984254410178207</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7169366117492542</v>
+        <v>0.7357769667271803</v>
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9671616358025665</v>
+        <v>0.9676715496069787</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
@@ -809,13 +809,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8763463481378112</v>
+        <v>0.8707734649167209</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9563866556883479</v>
+        <v>0.9576903156497389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9127784762906276</v>
+        <v>0.9129156423850451</v>
       </c>
     </row>
     <row r="18">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9483781593152708</v>
+        <v>0.9484238832036281</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9955816113117782</v>
+        <v>0.9954704539855851</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9807596941654555</v>
+        <v>0.9806516905505375</v>
       </c>
     </row>
     <row r="19">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35583</v>
+        <v>35585</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65466</v>
+        <v>65202</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43137</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="7">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42547</v>
+        <v>42561</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>70775</v>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>55496</v>
+        <v>54885</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>69116</v>
+        <v>68928</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39161</v>
+        <v>38889</v>
       </c>
     </row>
     <row r="11">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64907</v>
+        <v>64885</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>75831</v>
+        <v>75841</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45200</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="12">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55123</v>
+        <v>55185</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>30623</v>
+        <v>30590</v>
       </c>
     </row>
     <row r="15">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63502</v>
+        <v>63562</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22620</v>
+        <v>23214</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30515</v>
+        <v>30531</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>181080</v>
+        <v>179929</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>214286</v>
+        <v>214578</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>132355</v>
+        <v>132375</v>
       </c>
     </row>
     <row r="23">
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>195964</v>
+        <v>195974</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>223068</v>
+        <v>223043</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>142212</v>
+        <v>142196</v>
       </c>
     </row>
     <row r="24">
